--- a/Fungsional BTKP.xlsx
+++ b/Fungsional BTKP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gitlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\btkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C939AC-1382-4474-A07C-236B71298F9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C1F5E7-3DC0-4D88-BBAD-3AF738195D77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,15 +736,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>112060</xdr:rowOff>
+      <xdr:colOff>400696</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83197</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152426</xdr:colOff>
+      <xdr:colOff>441063</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1143495</xdr:rowOff>
+      <xdr:rowOff>248723</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -767,8 +767,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18612971" y="1266266"/>
-          <a:ext cx="4276190" cy="1219048"/>
+          <a:off x="18902287" y="660470"/>
+          <a:ext cx="4283321" cy="2676662"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1729,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="B16" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3084,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3972,8 +3972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046E318B-5B32-49B7-A362-A60B1DAC96C1}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Fungsional BTKP.xlsx
+++ b/Fungsional BTKP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Gitlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\btkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C939AC-1382-4474-A07C-236B71298F9A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248E96F4-AC46-4403-A3BD-72CE807F2E41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Perizinan" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="OLE_LINK1" localSheetId="0">Perizinan!$D$8</definedName>
     <definedName name="OLE_LINK1" localSheetId="1">sertifikasi!$D$8</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="159">
   <si>
     <t>Perizinan</t>
   </si>
@@ -441,14 +441,6 @@
     <t>Menampilkan form pengisian identitas dan menyimpan data identitas instansi</t>
   </si>
   <si>
-    <t>• Nama instansi tidak boleh ada karakter atau angka
-• alamat kantor max 60 karakter
-• Jabatan pemohon eror
-• fax tidak wajib isi
-• akta workshop kurang tooltip nggo contoh penulisan.
-• pertanyaan ya tidak pas tombol save ganti modal wae pep . Soale sing iki tak goleki celahe isih iso nyimpen data. Nek yes muncul modal meneh data berhasil disimpan gek langsung ilang next step 2.</t>
-  </si>
-  <si>
     <t>Menampilkan form data alat keselamatan baru dan menyimpan data alat serta persyaratan</t>
   </si>
   <si>
@@ -477,11 +469,6 @@
 • email pemohon</t>
   </si>
   <si>
-    <t>• alert sukses di ilangi wae pep, mau notife ws ng step 1
-• pertanyaan ya tidak pas tombol save ganti modal wae pep . Soale sing iki tak goleki celahe isih iso nyimpen data. Nek yes muncul modal meneh data berhasil disimpan gek langsung ilang next step 3.
-• alamat pabrikan orausah nganggo propinsi dll cukup textarea wae soalne nk alamate pabrik ng negoro lio pep</t>
-  </si>
-  <si>
     <t>Menampilkan form konfirmasi dan menyimpan permohonan sertifikasi alat keselamatan baru</t>
   </si>
   <si>
@@ -545,12 +532,670 @@
     <t xml:space="preserve">• Menampilkan feedback "Terimakasih, data telah disimpan"
 </t>
   </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• alert sukses di ilangi wae pep, mau notife ws ng step 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pertanyaan ya tidak pas tombol save ganti modal wae pep . Soale sing iki tak goleki celahe isih iso nyimpen data. Nek yes muncul modal meneh data berhasil disimpan gek langsung ilang next step 3.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• Nama perusahaan tidak boleh ada karakter atau angka
+• alamat kantor max 60 karakter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• akta workshop kurang tooltip nggo contoh penulisan.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• pertanyaan ya tidak pas tombol save ganti modal wae pep . Soale sing iki tak goleki celahe isih iso nyimpen data. Nek yes muncul modal meneh data berhasil disimpan gek langsung ilang next step 2.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• alert sukses di ilangi wae pep, mau notife ws ng step 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• datane ditampilke langsung pep ora sah nganggo klik</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• pertanyaan ya tidak pas tombol save ganti modal wae pep . Soale sing iki tak goleki celahe isih iso nyimpen data. Nek yes muncul modal meneh data berhasil disimpan gek langsung ilang next ke home.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• alert sukses di ilangi wae pep, mau notife ws ng step 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• Tab "SPK" di ubah nama dadi "Perizinan"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>id permohonan isine SPK64PS (spk statis, 64 dinamis sesuai id, PS kode alat sg diajukan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• tabs "verifikasi " diubah nama dadi "verifikasi administrasi" urutane dadi "verifikasi administrasi", "inspeksi teknis", "Pembayaran", "penerbitan", "data SPK", "Permohonan yang ditolak"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• tabel verifikasi kurang 1 kolom id permohonan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• Notifikasi melalui email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• Update data dari daftar progres permohonan  ke dalam tabel permohonan yang ditolak</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Notifikasi melalui email
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• mengubah status  pada progres permohonan  dari proses ke menunggu file hasil survey</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• Notifikasi melalui email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Update data dari daftar progres permohonan  ke dalam tabel permohonan yang ditolak</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• Notifikasi melalui email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• mengubah status  pada progres pelayanan  dari  proses ke menunggu pembayaran</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• Notifikasi melalui email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• mengubah status  pada progres pelayanan  dari menunggu verifikasi ke menunggu pembayaran</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• alert sukses di ilangi wae pep, mau notife ws ng step 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• pertanyaan ya tidak pas tombol save ganti modal wae pep . Soale sing iki tak goleki celahe isih iso nyimpen data. Nek yes muncul modal meneh data berhasil disimpan gek langsung ilang next step 3.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• alert sukses di ilangi wae pep, mau notife ws ng step 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• datane ditampilke langsung pep ora sah nganggo klik
+• pertanyaan ya tidak pas tombol save ganti modal wae pep . Soale sing iki tak goleki celahe isih iso nyimpen data. Nek yes muncul modal meneh data berhasil disimpan gek langsung ilang next ke home.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• alert sukses di ilangi wae pep, mau notife ws ng step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• Tab "SPK" di ubah nama dadi "Perizinan"
+• id permohonan isine SPK64PS (spk statis, 64 dinamis sesuai id, PS kode alat sg diajukan</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• Nama instansi tidak boleh ada karakter atau angka
+• alamat kantor max 60 karakter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• Jabatan pemohon eror</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• fax tidak wajib isi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• akta workshop kurang tooltip nggo contoh penulisan.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• pertanyaan ya tidak pas tombol save ganti modal wae pep . Soale sing iki tak goleki celahe isih iso nyimpen data. Nek yes muncul modal meneh data berhasil disimpan gek langsung ilang next step 2.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• alert sukses di ilangi wae pep, mau notife ws ng step 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• pertanyaan ya tidak pas tombol save ganti modal wae pep . Soale sing iki tak goleki celahe isih iso nyimpen data. Nek yes muncul modal meneh data berhasil disimpan gek langsung ilang next step 3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• alamat pabrikan orausah nganggo propinsi dll cukup textarea wae soalne nk alamate pabrik ng negoro lio pep</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• alert sukses di ilangi wae pep, mau notife ws ng step 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• id permohonan isineSDP64PS (sdp statis, 64 dinamis sesuai id, PS kode alat sg diajukan</t>
+    </r>
+  </si>
+  <si>
+    <t>Permohonan di tampilkan dalam tabs verifikasi awal</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,6 +1230,27 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -655,7 +1321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -705,6 +1371,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -713,6 +1388,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,8 +1815,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>187609</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>709086</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1729,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A76" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,25 +2433,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
@@ -1788,24 +2469,24 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -1833,19 +2514,21 @@
       <c r="C8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="17" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="240" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1857,17 +2540,17 @@
       <c r="C9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -1882,14 +2565,14 @@
         <v>61</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="17" t="s">
         <v>68</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -1903,11 +2586,11 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -1947,11 +2630,11 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="17" t="s">
         <v>73</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -1968,7 +2651,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="17" t="s">
         <v>65</v>
       </c>
       <c r="H15" s="4"/>
@@ -1984,13 +2667,13 @@
         <v>23</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="17" t="s">
         <v>75</v>
       </c>
       <c r="H16" s="4"/>
@@ -2006,10 +2689,10 @@
       <c r="D17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="19" t="s">
         <v>72</v>
       </c>
       <c r="G17" s="4"/>
@@ -2040,9 +2723,9 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="19" t="s">
         <v>78</v>
       </c>
       <c r="H19" s="4"/>
@@ -2057,8 +2740,8 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>79</v>
+      <c r="F20" s="19" t="s">
+        <v>148</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2075,7 +2758,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="17" t="s">
         <v>80</v>
       </c>
       <c r="G21" s="4"/>
@@ -2107,7 +2790,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="17" t="s">
         <v>81</v>
       </c>
       <c r="G23" s="4"/>
@@ -2126,7 +2809,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="17" t="s">
         <v>65</v>
       </c>
       <c r="H24" s="4"/>
@@ -2142,10 +2825,10 @@
         <v>28</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="19" t="s">
         <v>83</v>
       </c>
       <c r="G25" s="4"/>
@@ -2159,13 +2842,13 @@
       <c r="C26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="19" t="s">
         <v>82</v>
       </c>
       <c r="G26" s="4"/>
@@ -2193,10 +2876,10 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="17" t="s">
         <v>85</v>
       </c>
       <c r="H28" s="4"/>
@@ -2211,7 +2894,7 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="17" t="s">
         <v>89</v>
       </c>
       <c r="G29" s="4"/>
@@ -2226,10 +2909,10 @@
         <v>36</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="17" t="s">
         <v>88</v>
       </c>
       <c r="G30" s="4"/>
@@ -2258,7 +2941,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2272,7 +2955,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -2286,13 +2969,13 @@
         <v>39</v>
       </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="17" t="s">
         <v>93</v>
       </c>
       <c r="H34" s="4"/>
@@ -2306,13 +2989,13 @@
         <v>41</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="17" t="s">
         <v>97</v>
       </c>
       <c r="H35" s="4"/>
@@ -2339,10 +3022,10 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="17" t="s">
         <v>87</v>
       </c>
       <c r="H37" s="4"/>
@@ -2370,7 +3053,7 @@
         <v>46</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F39" s="4"/>
@@ -2384,7 +3067,7 @@
         <v>47</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="17" t="s">
         <v>99</v>
       </c>
       <c r="F40" s="4"/>
@@ -2414,7 +3097,7 @@
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -2427,7 +3110,7 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="19" t="s">
         <v>86</v>
       </c>
       <c r="G43" s="4"/>
@@ -2442,7 +3125,7 @@
         <v>51</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="17" t="s">
         <v>101</v>
       </c>
       <c r="F44" s="4"/>
@@ -2460,24 +3143,24 @@
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
@@ -2545,17 +3228,17 @@
       <c r="C52" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="H52" s="4"/>
     </row>
@@ -2568,14 +3251,14 @@
         <v>61</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="17" t="s">
         <v>68</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="H53" s="4"/>
     </row>
@@ -2587,11 +3270,11 @@
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="H54" s="4"/>
     </row>
@@ -2621,10 +3304,10 @@
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G56" s="17" t="s">
         <v>76</v>
       </c>
       <c r="H56" s="4"/>
@@ -2642,7 +3325,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="17" t="s">
         <v>65</v>
       </c>
       <c r="H57" s="4"/>
@@ -2658,13 +3341,13 @@
         <v>23</v>
       </c>
       <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="17" t="s">
         <v>75</v>
       </c>
       <c r="H58" s="4"/>
@@ -2677,13 +3360,13 @@
       <c r="C59" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="17" t="s">
         <v>72</v>
       </c>
       <c r="G59" s="4"/>
@@ -2715,7 +3398,7 @@
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="17" t="s">
         <v>81</v>
       </c>
       <c r="G61" s="4"/>
@@ -2731,10 +3414,10 @@
       <c r="C62" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4" t="s">
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17" t="s">
         <v>65</v>
       </c>
       <c r="H62" s="4"/>
@@ -2749,14 +3432,14 @@
       <c r="C63" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4" t="s">
+      <c r="D63" s="17"/>
+      <c r="E63" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="G63" s="4"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2767,16 +3450,16 @@
       <c r="C64" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="G64" s="4"/>
+      <c r="G64" s="17"/>
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2801,10 +3484,10 @@
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="17" t="s">
         <v>85</v>
       </c>
       <c r="H66" s="4"/>
@@ -2819,7 +3502,7 @@
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="17" t="s">
         <v>89</v>
       </c>
       <c r="G67" s="4"/>
@@ -2834,10 +3517,10 @@
         <v>36</v>
       </c>
       <c r="D68" s="4"/>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="17" t="s">
         <v>88</v>
       </c>
       <c r="G68" s="4"/>
@@ -2866,7 +3549,7 @@
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -2880,7 +3563,7 @@
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -2894,13 +3577,13 @@
         <v>39</v>
       </c>
       <c r="D72" s="4"/>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="G72" s="17" t="s">
         <v>93</v>
       </c>
       <c r="H72" s="4"/>
@@ -2914,13 +3597,13 @@
         <v>41</v>
       </c>
       <c r="D73" s="4"/>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G73" s="4" t="s">
+      <c r="G73" s="17" t="s">
         <v>97</v>
       </c>
       <c r="H73" s="4"/>
@@ -2947,10 +3630,10 @@
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="17" t="s">
         <v>87</v>
       </c>
       <c r="H75" s="4"/>
@@ -2978,7 +3661,7 @@
         <v>46</v>
       </c>
       <c r="D77" s="4"/>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="17" t="s">
         <v>98</v>
       </c>
       <c r="F77" s="4"/>
@@ -2992,7 +3675,7 @@
         <v>47</v>
       </c>
       <c r="D78" s="4"/>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="17" t="s">
         <v>99</v>
       </c>
       <c r="F78" s="4"/>
@@ -3022,7 +3705,7 @@
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -3035,7 +3718,7 @@
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="19" t="s">
         <v>86</v>
       </c>
       <c r="G81" s="4"/>
@@ -3050,7 +3733,7 @@
         <v>51</v>
       </c>
       <c r="D82" s="4"/>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="17" t="s">
         <v>101</v>
       </c>
       <c r="F82" s="4"/>
@@ -3084,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3107,25 +3790,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
@@ -3143,24 +3826,24 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -3188,17 +3871,17 @@
       <c r="C8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="17" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -3210,19 +3893,19 @@
         <v>56</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -3234,21 +3917,21 @@
         <v>60</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="17" t="s">
         <v>68</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -3258,11 +3941,11 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>115</v>
+      <c r="G11" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -3302,11 +3985,11 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>128</v>
+      <c r="F14" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -3323,7 +4006,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="17" t="s">
         <v>65</v>
       </c>
       <c r="H15" s="4"/>
@@ -3339,13 +4022,13 @@
         <v>23</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>127</v>
+      <c r="F16" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -3361,10 +4044,10 @@
       <c r="D17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="17" t="s">
         <v>72</v>
       </c>
       <c r="G17" s="4"/>
@@ -3373,7 +4056,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>2</v>
@@ -3393,7 +4076,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -3407,7 +4090,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -3421,10 +4104,10 @@
         <v>39</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="17" t="s">
         <v>91</v>
       </c>
       <c r="G21" s="4"/>
@@ -3439,10 +4122,10 @@
         <v>41</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="17" t="s">
         <v>96</v>
       </c>
       <c r="G22" s="4"/>
@@ -3500,10 +4183,10 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="17" t="s">
         <v>87</v>
       </c>
       <c r="H27" s="4"/>
@@ -3531,11 +4214,11 @@
         <v>46</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>131</v>
+      <c r="E29" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -3559,14 +4242,14 @@
         <v>15</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -3599,7 +4282,7 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -3637,7 +4320,7 @@
         <v>70</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -3739,7 +4422,7 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>2</v>
@@ -3868,7 +4551,7 @@
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -3891,7 +4574,7 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>2</v>
@@ -3940,7 +4623,7 @@
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -3972,7 +4655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{046E318B-5B32-49B7-A362-A60B1DAC96C1}">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3995,25 +4678,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
@@ -4031,24 +4714,24 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -4071,16 +4754,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>142</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
@@ -4655,24 +5338,24 @@
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>

--- a/Fungsional BTKP.xlsx
+++ b/Fungsional BTKP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\btkp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248E96F4-AC46-4403-A3BD-72CE807F2E41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF37FE29-3720-439E-B7C9-94B3E343AAF4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1380,6 +1380,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1388,12 +1394,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2433,25 +2433,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
@@ -2469,24 +2469,24 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -3143,24 +3143,24 @@
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
     </row>
@@ -3767,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3790,25 +3790,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
@@ -3826,24 +3826,24 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -3944,7 +3944,7 @@
       <c r="F11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="21" t="s">
         <v>157</v>
       </c>
       <c r="H11" s="4"/>
@@ -3988,7 +3988,7 @@
       <c r="F14" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="20" t="s">
         <v>126</v>
       </c>
       <c r="H14" s="4"/>
@@ -4217,7 +4217,7 @@
       <c r="E29" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="17" t="s">
         <v>128</v>
       </c>
       <c r="G29" s="4"/>
@@ -4230,7 +4230,7 @@
         <v>47</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="17" t="s">
         <v>99</v>
       </c>
       <c r="F30" s="4"/>
@@ -4248,7 +4248,7 @@
         <v>131</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="17" t="s">
         <v>132</v>
       </c>
       <c r="F31" s="4"/>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="17" t="s">
         <v>133</v>
       </c>
       <c r="G33" s="4"/>
@@ -4300,7 +4300,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="17" t="s">
         <v>65</v>
       </c>
       <c r="H34" s="4"/>
@@ -4316,10 +4316,10 @@
         <v>28</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="17" t="s">
         <v>134</v>
       </c>
       <c r="G35" s="4"/>
@@ -4333,13 +4333,13 @@
       <c r="C36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="17" t="s">
         <v>82</v>
       </c>
       <c r="G36" s="4"/>
@@ -4367,10 +4367,10 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="17" t="s">
         <v>85</v>
       </c>
       <c r="H38" s="4"/>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="17" t="s">
         <v>89</v>
       </c>
       <c r="G39" s="4"/>
@@ -4400,10 +4400,10 @@
         <v>36</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="17" t="s">
         <v>88</v>
       </c>
       <c r="G40" s="4"/>
@@ -4442,7 +4442,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -4456,7 +4456,7 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -4470,10 +4470,10 @@
         <v>39</v>
       </c>
       <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="17" t="s">
         <v>91</v>
       </c>
       <c r="G45" s="4"/>
@@ -4488,10 +4488,10 @@
         <v>41</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="17" t="s">
         <v>96</v>
       </c>
       <c r="G46" s="4"/>
@@ -4519,10 +4519,10 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="17" t="s">
         <v>87</v>
       </c>
       <c r="H48" s="4"/>
@@ -4550,7 +4550,7 @@
         <v>46</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="17" t="s">
         <v>135</v>
       </c>
       <c r="F50" s="4"/>
@@ -4564,7 +4564,7 @@
         <v>47</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="17" t="s">
         <v>99</v>
       </c>
       <c r="F51" s="4"/>
@@ -4594,7 +4594,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -4607,7 +4607,7 @@
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="19" t="s">
         <v>86</v>
       </c>
       <c r="G54" s="4"/>
@@ -4622,7 +4622,7 @@
         <v>51</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="17" t="s">
         <v>136</v>
       </c>
       <c r="F55" s="4"/>
@@ -4678,25 +4678,25 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="13" t="s">
         <v>11</v>
       </c>
@@ -4714,24 +4714,24 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
@@ -5338,24 +5338,24 @@
       <c r="H43" s="4"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
